--- a/random_excels/competition_01.xlsx
+++ b/random_excels/competition_01.xlsx
@@ -5,16 +5,15 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ff42fe3cf594573e/Dokumenty/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ff42fe3cf594573e/Desktop/projekt/random_excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C06C487C-6417-4DCF-8D61-D12461D6BB37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="8_{C06C487C-6417-4DCF-8D61-D12461D6BB37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B00B986F-3713-4914-BFCE-E7A9F3FA44C2}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{BBF708AA-404B-42D5-AB5B-E0A589A90696}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{BBF708AA-404B-42D5-AB5B-E0A589A90696}"/>
   </bookViews>
   <sheets>
     <sheet name="logFile (2)" sheetId="3" r:id="rId1"/>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">'logFile (2)'!$A$1:$T$101</definedName>
@@ -51,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
   <si>
     <t>countGenderMixHard</t>
   </si>
@@ -111,27 +110,6 @@
   </si>
   <si>
     <t>res</t>
-  </si>
-  <si>
-    <t>5253890.000000</t>
-  </si>
-  <si>
-    <t>4763864.000000</t>
-  </si>
-  <si>
-    <t>5079035.000000</t>
-  </si>
-  <si>
-    <t>5638965.000000</t>
-  </si>
-  <si>
-    <t>5253414.000000</t>
-  </si>
-  <si>
-    <t>5463380.000000</t>
-  </si>
-  <si>
-    <t>6268912.000000</t>
   </si>
   <si>
     <t>5603523.000000</t>
@@ -439,21 +417,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor theme="9" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -461,28 +433,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </right>
-      <top style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -879,10 +835,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11689234-CF07-4F2E-81C0-868AFBB3F904}">
-  <dimension ref="A1:T101"/>
+  <dimension ref="A1:W101"/>
   <sheetViews>
-    <sheetView topLeftCell="Q74" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2:T101"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="Y11" sqref="Y11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -909,7 +865,7 @@
     <col min="20" max="20" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -971,7 +927,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>17</v>
       </c>
@@ -1029,11 +985,11 @@
       <c r="S2">
         <v>394</v>
       </c>
-      <c r="T2" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T2">
+        <v>5253890</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>21</v>
       </c>
@@ -1091,11 +1047,11 @@
       <c r="S3">
         <v>447</v>
       </c>
-      <c r="T3" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T3">
+        <v>4763864</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>22</v>
       </c>
@@ -1153,11 +1109,11 @@
       <c r="S4">
         <v>388</v>
       </c>
-      <c r="T4" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T4">
+        <v>5079035</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>22</v>
       </c>
@@ -1215,11 +1171,18 @@
       <c r="S5">
         <v>382</v>
       </c>
-      <c r="T5" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T5">
+        <v>5638965</v>
+      </c>
+      <c r="V5" t="s">
+        <v>113</v>
+      </c>
+      <c r="W5">
+        <f>MAX(T5:T104)</f>
+        <v>6268912</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>24</v>
       </c>
@@ -1277,11 +1240,18 @@
       <c r="S6">
         <v>410</v>
       </c>
-      <c r="T6" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T6">
+        <v>5253414</v>
+      </c>
+      <c r="V6" t="s">
+        <v>114</v>
+      </c>
+      <c r="W6">
+        <f>MIN(T5:T104)</f>
+        <v>5253414</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>22</v>
       </c>
@@ -1339,11 +1309,18 @@
       <c r="S7">
         <v>450</v>
       </c>
-      <c r="T7" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T7">
+        <v>5463380</v>
+      </c>
+      <c r="V7" t="s">
+        <v>115</v>
+      </c>
+      <c r="W7">
+        <f>AVERAGE(T5:T104)</f>
+        <v>5656167.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>27</v>
       </c>
@@ -1401,11 +1378,18 @@
       <c r="S8">
         <v>327</v>
       </c>
-      <c r="T8" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T8">
+        <v>6268912</v>
+      </c>
+      <c r="V8" t="s">
+        <v>116</v>
+      </c>
+      <c r="W8">
+        <f>STDEVA(T5:T104)</f>
+        <v>1133151.0001259986</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>20</v>
       </c>
@@ -1463,11 +1447,11 @@
       <c r="S9">
         <v>314</v>
       </c>
-      <c r="T9" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>32</v>
       </c>
@@ -1525,11 +1509,11 @@
       <c r="S10">
         <v>397</v>
       </c>
-      <c r="T10" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>16</v>
       </c>
@@ -1587,11 +1571,11 @@
       <c r="S11">
         <v>376</v>
       </c>
-      <c r="T11" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>28</v>
       </c>
@@ -1649,11 +1633,11 @@
       <c r="S12">
         <v>423</v>
       </c>
-      <c r="T12" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>19</v>
       </c>
@@ -1711,11 +1695,11 @@
       <c r="S13">
         <v>351</v>
       </c>
-      <c r="T13" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>19</v>
       </c>
@@ -1773,11 +1757,11 @@
       <c r="S14">
         <v>332</v>
       </c>
-      <c r="T14" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>18</v>
       </c>
@@ -1835,11 +1819,11 @@
       <c r="S15">
         <v>333</v>
       </c>
-      <c r="T15" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>23</v>
       </c>
@@ -1897,8 +1881,8 @@
       <c r="S16">
         <v>392</v>
       </c>
-      <c r="T16" s="1" t="s">
-        <v>34</v>
+      <c r="T16" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.3">
@@ -1959,8 +1943,8 @@
       <c r="S17">
         <v>411</v>
       </c>
-      <c r="T17" s="1" t="s">
-        <v>35</v>
+      <c r="T17" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
@@ -2021,8 +2005,8 @@
       <c r="S18">
         <v>377</v>
       </c>
-      <c r="T18" s="1" t="s">
-        <v>36</v>
+      <c r="T18" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.3">
@@ -2083,8 +2067,8 @@
       <c r="S19">
         <v>388</v>
       </c>
-      <c r="T19" s="1" t="s">
-        <v>37</v>
+      <c r="T19" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.3">
@@ -2145,8 +2129,8 @@
       <c r="S20">
         <v>401</v>
       </c>
-      <c r="T20" s="1" t="s">
-        <v>38</v>
+      <c r="T20" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
@@ -2207,8 +2191,8 @@
       <c r="S21">
         <v>326</v>
       </c>
-      <c r="T21" s="1" t="s">
-        <v>39</v>
+      <c r="T21" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.3">
@@ -2269,8 +2253,8 @@
       <c r="S22">
         <v>390</v>
       </c>
-      <c r="T22" s="1" t="s">
-        <v>40</v>
+      <c r="T22" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.3">
@@ -2331,8 +2315,8 @@
       <c r="S23">
         <v>326</v>
       </c>
-      <c r="T23" s="1" t="s">
-        <v>41</v>
+      <c r="T23" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.3">
@@ -2393,8 +2377,8 @@
       <c r="S24">
         <v>431</v>
       </c>
-      <c r="T24" s="1" t="s">
-        <v>42</v>
+      <c r="T24" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
@@ -2455,8 +2439,8 @@
       <c r="S25">
         <v>423</v>
       </c>
-      <c r="T25" s="1" t="s">
-        <v>43</v>
+      <c r="T25" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.3">
@@ -2517,8 +2501,8 @@
       <c r="S26">
         <v>356</v>
       </c>
-      <c r="T26" s="1" t="s">
-        <v>44</v>
+      <c r="T26" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.3">
@@ -2579,8 +2563,8 @@
       <c r="S27">
         <v>329</v>
       </c>
-      <c r="T27" s="1" t="s">
-        <v>45</v>
+      <c r="T27" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.3">
@@ -2641,8 +2625,8 @@
       <c r="S28">
         <v>308</v>
       </c>
-      <c r="T28" s="1" t="s">
-        <v>46</v>
+      <c r="T28" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.3">
@@ -2703,8 +2687,8 @@
       <c r="S29">
         <v>445</v>
       </c>
-      <c r="T29" s="1" t="s">
-        <v>47</v>
+      <c r="T29" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.3">
@@ -2765,8 +2749,8 @@
       <c r="S30">
         <v>378</v>
       </c>
-      <c r="T30" s="1" t="s">
-        <v>48</v>
+      <c r="T30" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.3">
@@ -2827,8 +2811,8 @@
       <c r="S31">
         <v>364</v>
       </c>
-      <c r="T31" s="1" t="s">
-        <v>49</v>
+      <c r="T31" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.3">
@@ -2889,8 +2873,8 @@
       <c r="S32">
         <v>433</v>
       </c>
-      <c r="T32" s="1" t="s">
-        <v>50</v>
+      <c r="T32" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.3">
@@ -2951,8 +2935,8 @@
       <c r="S33">
         <v>403</v>
       </c>
-      <c r="T33" s="1" t="s">
-        <v>51</v>
+      <c r="T33" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.3">
@@ -3013,8 +2997,8 @@
       <c r="S34">
         <v>359</v>
       </c>
-      <c r="T34" s="1" t="s">
-        <v>52</v>
+      <c r="T34" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.3">
@@ -3075,8 +3059,8 @@
       <c r="S35">
         <v>436</v>
       </c>
-      <c r="T35" s="1" t="s">
-        <v>53</v>
+      <c r="T35" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.3">
@@ -3137,8 +3121,8 @@
       <c r="S36">
         <v>381</v>
       </c>
-      <c r="T36" s="1" t="s">
-        <v>54</v>
+      <c r="T36" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.3">
@@ -3199,8 +3183,8 @@
       <c r="S37">
         <v>389</v>
       </c>
-      <c r="T37" s="1" t="s">
-        <v>55</v>
+      <c r="T37" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.3">
@@ -3261,8 +3245,8 @@
       <c r="S38">
         <v>391</v>
       </c>
-      <c r="T38" s="1" t="s">
-        <v>56</v>
+      <c r="T38" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.3">
@@ -3323,8 +3307,8 @@
       <c r="S39">
         <v>363</v>
       </c>
-      <c r="T39" s="1" t="s">
-        <v>57</v>
+      <c r="T39" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.3">
@@ -3385,8 +3369,8 @@
       <c r="S40">
         <v>396</v>
       </c>
-      <c r="T40" s="1" t="s">
-        <v>58</v>
+      <c r="T40" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.3">
@@ -3447,8 +3431,8 @@
       <c r="S41">
         <v>326</v>
       </c>
-      <c r="T41" s="1" t="s">
-        <v>59</v>
+      <c r="T41" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.3">
@@ -3509,8 +3493,8 @@
       <c r="S42">
         <v>312</v>
       </c>
-      <c r="T42" s="1" t="s">
-        <v>60</v>
+      <c r="T42" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.3">
@@ -3571,8 +3555,8 @@
       <c r="S43">
         <v>400</v>
       </c>
-      <c r="T43" s="1" t="s">
-        <v>61</v>
+      <c r="T43" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.3">
@@ -3633,8 +3617,8 @@
       <c r="S44">
         <v>294</v>
       </c>
-      <c r="T44" s="1" t="s">
-        <v>62</v>
+      <c r="T44" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.3">
@@ -3695,8 +3679,8 @@
       <c r="S45">
         <v>472</v>
       </c>
-      <c r="T45" s="1" t="s">
-        <v>63</v>
+      <c r="T45" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.3">
@@ -3757,8 +3741,8 @@
       <c r="S46">
         <v>352</v>
       </c>
-      <c r="T46" s="1" t="s">
-        <v>64</v>
+      <c r="T46" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.3">
@@ -3819,8 +3803,8 @@
       <c r="S47">
         <v>305</v>
       </c>
-      <c r="T47" s="1" t="s">
-        <v>65</v>
+      <c r="T47" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.3">
@@ -3881,8 +3865,8 @@
       <c r="S48">
         <v>384</v>
       </c>
-      <c r="T48" s="1" t="s">
-        <v>66</v>
+      <c r="T48" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.3">
@@ -3943,8 +3927,8 @@
       <c r="S49">
         <v>357</v>
       </c>
-      <c r="T49" s="1" t="s">
-        <v>67</v>
+      <c r="T49" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.3">
@@ -4005,8 +3989,8 @@
       <c r="S50">
         <v>424</v>
       </c>
-      <c r="T50" s="1" t="s">
-        <v>68</v>
+      <c r="T50" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.3">
@@ -4067,8 +4051,8 @@
       <c r="S51">
         <v>410</v>
       </c>
-      <c r="T51" s="1" t="s">
-        <v>69</v>
+      <c r="T51" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.3">
@@ -4129,8 +4113,8 @@
       <c r="S52">
         <v>373</v>
       </c>
-      <c r="T52" s="1" t="s">
-        <v>70</v>
+      <c r="T52" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.3">
@@ -4191,8 +4175,8 @@
       <c r="S53">
         <v>330</v>
       </c>
-      <c r="T53" s="1" t="s">
-        <v>71</v>
+      <c r="T53" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.3">
@@ -4253,8 +4237,8 @@
       <c r="S54">
         <v>431</v>
       </c>
-      <c r="T54" s="1" t="s">
-        <v>72</v>
+      <c r="T54" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.3">
@@ -4315,8 +4299,8 @@
       <c r="S55">
         <v>424</v>
       </c>
-      <c r="T55" s="1" t="s">
-        <v>73</v>
+      <c r="T55" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.3">
@@ -4377,8 +4361,8 @@
       <c r="S56">
         <v>385</v>
       </c>
-      <c r="T56" s="1" t="s">
-        <v>74</v>
+      <c r="T56" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.3">
@@ -4439,8 +4423,8 @@
       <c r="S57">
         <v>364</v>
       </c>
-      <c r="T57" s="1" t="s">
-        <v>75</v>
+      <c r="T57" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.3">
@@ -4501,8 +4485,8 @@
       <c r="S58">
         <v>344</v>
       </c>
-      <c r="T58" s="1" t="s">
-        <v>76</v>
+      <c r="T58" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.3">
@@ -4563,8 +4547,8 @@
       <c r="S59">
         <v>436</v>
       </c>
-      <c r="T59" s="1" t="s">
-        <v>77</v>
+      <c r="T59" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.3">
@@ -4625,8 +4609,8 @@
       <c r="S60">
         <v>404</v>
       </c>
-      <c r="T60" s="1" t="s">
-        <v>78</v>
+      <c r="T60" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.3">
@@ -4687,8 +4671,8 @@
       <c r="S61">
         <v>307</v>
       </c>
-      <c r="T61" s="1" t="s">
-        <v>79</v>
+      <c r="T61" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.3">
@@ -4749,8 +4733,8 @@
       <c r="S62">
         <v>404</v>
       </c>
-      <c r="T62" s="1" t="s">
-        <v>80</v>
+      <c r="T62" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.3">
@@ -4811,8 +4795,8 @@
       <c r="S63">
         <v>383</v>
       </c>
-      <c r="T63" s="1" t="s">
-        <v>81</v>
+      <c r="T63" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.3">
@@ -4873,8 +4857,8 @@
       <c r="S64">
         <v>438</v>
       </c>
-      <c r="T64" s="1" t="s">
-        <v>82</v>
+      <c r="T64" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.3">
@@ -4935,8 +4919,8 @@
       <c r="S65">
         <v>408</v>
       </c>
-      <c r="T65" s="1" t="s">
-        <v>83</v>
+      <c r="T65" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.3">
@@ -4997,8 +4981,8 @@
       <c r="S66">
         <v>342</v>
       </c>
-      <c r="T66" s="1" t="s">
-        <v>84</v>
+      <c r="T66" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.3">
@@ -5059,8 +5043,8 @@
       <c r="S67">
         <v>402</v>
       </c>
-      <c r="T67" s="1" t="s">
-        <v>85</v>
+      <c r="T67" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.3">
@@ -5121,8 +5105,8 @@
       <c r="S68">
         <v>350</v>
       </c>
-      <c r="T68" s="1" t="s">
-        <v>86</v>
+      <c r="T68" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.3">
@@ -5183,8 +5167,8 @@
       <c r="S69">
         <v>408</v>
       </c>
-      <c r="T69" s="1" t="s">
-        <v>87</v>
+      <c r="T69" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.3">
@@ -5245,8 +5229,8 @@
       <c r="S70">
         <v>389</v>
       </c>
-      <c r="T70" s="1" t="s">
-        <v>88</v>
+      <c r="T70" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.3">
@@ -5307,8 +5291,8 @@
       <c r="S71">
         <v>357</v>
       </c>
-      <c r="T71" s="1" t="s">
-        <v>89</v>
+      <c r="T71" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.3">
@@ -5369,8 +5353,8 @@
       <c r="S72">
         <v>280</v>
       </c>
-      <c r="T72" s="1" t="s">
-        <v>90</v>
+      <c r="T72" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.3">
@@ -5431,8 +5415,8 @@
       <c r="S73">
         <v>314</v>
       </c>
-      <c r="T73" s="1" t="s">
-        <v>91</v>
+      <c r="T73" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.3">
@@ -5493,8 +5477,8 @@
       <c r="S74">
         <v>267</v>
       </c>
-      <c r="T74" s="1" t="s">
-        <v>92</v>
+      <c r="T74" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.3">
@@ -5555,8 +5539,8 @@
       <c r="S75">
         <v>378</v>
       </c>
-      <c r="T75" s="1" t="s">
-        <v>93</v>
+      <c r="T75" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.3">
@@ -5617,8 +5601,8 @@
       <c r="S76">
         <v>382</v>
       </c>
-      <c r="T76" s="1" t="s">
-        <v>94</v>
+      <c r="T76" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.3">
@@ -5679,8 +5663,8 @@
       <c r="S77">
         <v>409</v>
       </c>
-      <c r="T77" s="1" t="s">
-        <v>95</v>
+      <c r="T77" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.3">
@@ -5741,8 +5725,8 @@
       <c r="S78">
         <v>310</v>
       </c>
-      <c r="T78" s="1" t="s">
-        <v>96</v>
+      <c r="T78" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.3">
@@ -5803,8 +5787,8 @@
       <c r="S79">
         <v>397</v>
       </c>
-      <c r="T79" s="1" t="s">
-        <v>97</v>
+      <c r="T79" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.3">
@@ -5865,8 +5849,8 @@
       <c r="S80">
         <v>431</v>
       </c>
-      <c r="T80" s="1" t="s">
-        <v>98</v>
+      <c r="T80" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.3">
@@ -5927,8 +5911,8 @@
       <c r="S81">
         <v>491</v>
       </c>
-      <c r="T81" s="1" t="s">
-        <v>99</v>
+      <c r="T81" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.3">
@@ -5989,8 +5973,8 @@
       <c r="S82">
         <v>411</v>
       </c>
-      <c r="T82" s="1" t="s">
-        <v>100</v>
+      <c r="T82" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.3">
@@ -6051,8 +6035,8 @@
       <c r="S83">
         <v>438</v>
       </c>
-      <c r="T83" s="1" t="s">
-        <v>101</v>
+      <c r="T83" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.3">
@@ -6113,8 +6097,8 @@
       <c r="S84">
         <v>381</v>
       </c>
-      <c r="T84" s="1" t="s">
-        <v>102</v>
+      <c r="T84" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.3">
@@ -6175,8 +6159,8 @@
       <c r="S85">
         <v>294</v>
       </c>
-      <c r="T85" s="1" t="s">
-        <v>103</v>
+      <c r="T85" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.3">
@@ -6237,8 +6221,8 @@
       <c r="S86">
         <v>395</v>
       </c>
-      <c r="T86" s="1" t="s">
-        <v>104</v>
+      <c r="T86" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.3">
@@ -6299,8 +6283,8 @@
       <c r="S87">
         <v>345</v>
       </c>
-      <c r="T87" s="1" t="s">
-        <v>105</v>
+      <c r="T87" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.3">
@@ -6361,8 +6345,8 @@
       <c r="S88">
         <v>341</v>
       </c>
-      <c r="T88" s="1" t="s">
-        <v>106</v>
+      <c r="T88" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.3">
@@ -6423,8 +6407,8 @@
       <c r="S89">
         <v>389</v>
       </c>
-      <c r="T89" s="1" t="s">
-        <v>107</v>
+      <c r="T89" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.3">
@@ -6485,8 +6469,8 @@
       <c r="S90">
         <v>454</v>
       </c>
-      <c r="T90" s="1" t="s">
-        <v>108</v>
+      <c r="T90" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.3">
@@ -6547,8 +6531,8 @@
       <c r="S91">
         <v>370</v>
       </c>
-      <c r="T91" s="1" t="s">
-        <v>109</v>
+      <c r="T91" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.3">
@@ -6609,8 +6593,8 @@
       <c r="S92">
         <v>445</v>
       </c>
-      <c r="T92" s="1" t="s">
-        <v>110</v>
+      <c r="T92" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.3">
@@ -6671,8 +6655,8 @@
       <c r="S93">
         <v>405</v>
       </c>
-      <c r="T93" s="1" t="s">
-        <v>111</v>
+      <c r="T93" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.3">
@@ -6733,8 +6717,8 @@
       <c r="S94">
         <v>381</v>
       </c>
-      <c r="T94" s="1" t="s">
-        <v>112</v>
+      <c r="T94" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.3">
@@ -6795,8 +6779,8 @@
       <c r="S95">
         <v>385</v>
       </c>
-      <c r="T95" s="1" t="s">
-        <v>113</v>
+      <c r="T95" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.3">
@@ -6857,8 +6841,8 @@
       <c r="S96">
         <v>377</v>
       </c>
-      <c r="T96" s="1" t="s">
-        <v>114</v>
+      <c r="T96" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.3">
@@ -6919,8 +6903,8 @@
       <c r="S97">
         <v>405</v>
       </c>
-      <c r="T97" s="1" t="s">
-        <v>115</v>
+      <c r="T97" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.3">
@@ -6981,8 +6965,8 @@
       <c r="S98">
         <v>395</v>
       </c>
-      <c r="T98" s="1" t="s">
-        <v>116</v>
+      <c r="T98" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.3">
@@ -7043,8 +7027,8 @@
       <c r="S99">
         <v>457</v>
       </c>
-      <c r="T99" s="1" t="s">
-        <v>117</v>
+      <c r="T99" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.3">
@@ -7105,8 +7089,8 @@
       <c r="S100">
         <v>420</v>
       </c>
-      <c r="T100" s="1" t="s">
-        <v>118</v>
+      <c r="T100" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.3">
@@ -7167,8 +7151,8 @@
       <c r="S101">
         <v>347</v>
       </c>
-      <c r="T101" s="1" t="s">
-        <v>119</v>
+      <c r="T101" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -7176,552 +7160,6 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7814532D-9D65-48D4-80F8-22A79FBDDC66}">
-  <dimension ref="A1:E100"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="17.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="2">
-        <v>5253890</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>4763864</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>5079035</v>
-      </c>
-      <c r="D3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E3">
-        <f>MAX(A1:A100)</f>
-        <v>6443736</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>5638965</v>
-      </c>
-      <c r="D4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E4">
-        <f>MIN(A1:A100)</f>
-        <v>4449454</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>5253414</v>
-      </c>
-      <c r="D5" t="s">
-        <v>122</v>
-      </c>
-      <c r="E5">
-        <f>AVERAGE(A1:A100)</f>
-        <v>5296928.79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>5463380</v>
-      </c>
-      <c r="D6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E6">
-        <f>STDEVA(A1:A100)</f>
-        <v>385733.67069011042</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>6268912</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
-        <v>5603523</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>6443736</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
-        <v>4903384</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>5883978</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
-        <v>5393560</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>5638787</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
-        <v>5183977</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>5008333</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
-        <v>5079262</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>5323827</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
-        <v>5848835</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>5883419</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
-        <v>5008609</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>4449454</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
-        <v>5428555</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
-        <v>5603386</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
-        <v>5533901</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
-        <v>5253640</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
-        <v>5428654</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
-        <v>5288572</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
-        <v>5743239</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
-        <v>4659760</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
-        <v>5394512</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
-        <v>5393584</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
-        <v>5534291</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
-        <v>5884237</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="3">
-        <v>5114094</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
-        <v>5673436</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="3">
-        <v>5149565</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
-        <v>5253737</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="3">
-        <v>5428559</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
-        <v>5009752</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="3">
-        <v>5813260</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
-        <v>4624403</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="3">
-        <v>4765059</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
-        <v>4519171</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="3">
-        <v>4975207</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="2">
-        <v>5394541</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="3">
-        <v>5883694</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="2">
-        <v>5359692</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="3">
-        <v>5253829</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="2">
-        <v>5497984</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="3">
-        <v>5323720</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="2">
-        <v>5358878</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="3">
-        <v>4903905</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="2">
-        <v>5219675</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="3">
-        <v>4834915</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="2">
-        <v>4973344</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="3">
-        <v>5183923</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="2">
-        <v>5323208</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="3">
-        <v>5359272</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="2">
-        <v>5604422</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" s="3">
-        <v>6197810</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" s="2">
-        <v>5113965</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" s="3">
-        <v>5708809</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" s="2">
-        <v>5148895</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" s="3">
-        <v>4799154</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" s="2">
-        <v>4799643</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" s="3">
-        <v>5184243</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" s="2">
-        <v>5497953</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" s="3">
-        <v>5324157</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" s="2">
-        <v>5358814</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" s="3">
-        <v>4868375</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" s="2">
-        <v>4904201</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" s="3">
-        <v>5148910</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" s="2">
-        <v>5988431</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" s="3">
-        <v>5358065</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" s="2">
-        <v>5183843</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" s="3">
-        <v>5184281</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" s="2">
-        <v>5323369</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" s="3">
-        <v>5394744</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79" s="2">
-        <v>5359303</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" s="3">
-        <v>5323894</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" s="2">
-        <v>5288701</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" s="3">
-        <v>4519078</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" s="2">
-        <v>5498654</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" s="3">
-        <v>5288845</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" s="2">
-        <v>4658866</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" s="3">
-        <v>5288987</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" s="2">
-        <v>4798308</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" s="3">
-        <v>5883173</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89" s="2">
-        <v>5079401</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" s="3">
-        <v>5847848</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91" s="2">
-        <v>5184184</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A92" s="3">
-        <v>4938441</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93" s="2">
-        <v>4868658</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A94" s="3">
-        <v>5848063</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A95" s="2">
-        <v>5464450</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A96" s="3">
-        <v>5393710</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97" s="2">
-        <v>4939497</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98" s="3">
-        <v>5183744</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99" s="2">
-        <v>4869349</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A100" s="3">
-        <v>5358343</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
